--- a/resources/username_password.xlsx
+++ b/resources/username_password.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarusway\IdeaProjects\CWTestNGProject\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\özcan&amp;nihal\IdeaProjects\CwTestNGProject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5838B6A-3C78-4A33-B183-92A3A5E09F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38DD960-D24B-48B6-8A2D-263674C73107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="1920" windowWidth="15300" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Username</t>
   </si>
@@ -50,13 +50,79 @@
   </si>
   <si>
     <t>remmy_table</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Title1</t>
+  </si>
+  <si>
+    <t>Title2</t>
+  </si>
+  <si>
+    <t>Title3</t>
+  </si>
+  <si>
+    <t>Title4</t>
+  </si>
+  <si>
+    <t>Title5</t>
+  </si>
+  <si>
+    <t>Title6</t>
+  </si>
+  <si>
+    <t>Title7</t>
+  </si>
+  <si>
+    <t>Title8</t>
+  </si>
+  <si>
+    <t>Title9</t>
+  </si>
+  <si>
+    <t>Title10</t>
+  </si>
+  <si>
+    <t>Note1</t>
+  </si>
+  <si>
+    <t>Note2</t>
+  </si>
+  <si>
+    <t>Note3</t>
+  </si>
+  <si>
+    <t>Note4</t>
+  </si>
+  <si>
+    <t>Note5</t>
+  </si>
+  <si>
+    <t>Note6</t>
+  </si>
+  <si>
+    <t>Note7</t>
+  </si>
+  <si>
+    <t>Note8</t>
+  </si>
+  <si>
+    <t>Note9</t>
+  </si>
+  <si>
+    <t>Note10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +134,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,12 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,7 +464,7 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -452,12 +534,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF65902E-42D4-4AF4-9BA4-02ED7C11B2E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>